--- a/niji_holo新人数据统计.xlsx
+++ b/niji_holo新人数据统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\编程练习\vtuber-retention-analysis-by-chatdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8E794E-46AB-4F1D-BC87-ECEA49D26063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD0388-4F88-496F-A5F5-E8775C5BC15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{690CA392-E9E0-447C-9F79-1544890ADEBB}"/>
+    <workbookView xWindow="1440" yWindow="3345" windowWidth="31395" windowHeight="16740" activeTab="2" xr2:uid="{690CA392-E9E0-447C-9F79-1544890ADEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="新人留存比" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,23 +329,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2828,10 +2825,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salome来源推移!$A$13:$A$17</c:f>
+              <c:f>salome来源推移!$A$13:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2846,16 +2843,25 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salome来源推移!$B$13:$B$17</c:f>
+              <c:f>salome来源推移!$B$13:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.32350000000000001</c:v>
                 </c:pt>
@@ -2870,6 +2876,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2909,10 +2924,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salome来源推移!$A$13:$A$17</c:f>
+              <c:f>salome来源推移!$A$13:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2927,16 +2942,25 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salome来源推移!$C$13:$C$17</c:f>
+              <c:f>salome来源推移!$C$13:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.5200000000000002E-2</c:v>
                 </c:pt>
@@ -2951,6 +2975,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,10 +3023,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salome来源推移!$A$13:$A$17</c:f>
+              <c:f>salome来源推移!$A$13:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3008,16 +3041,25 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salome来源推移!$D$13:$D$17</c:f>
+              <c:f>salome来源推移!$D$13:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.35864051403449443</c:v>
                 </c:pt>
@@ -3032,6 +3074,15 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.34665323483322141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33981651376146788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33679653679653682</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2865286528652865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5572,15 +5623,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>50601</xdr:colOff>
+      <xdr:colOff>41672</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>115490</xdr:rowOff>
+      <xdr:colOff>303609</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>232170</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5907,7 +5958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC88730-9F4B-41D1-9D1D-2BD5A95422B2}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T33" sqref="T32:T33"/>
     </sheetView>
   </sheetViews>
@@ -6951,14 +7002,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
@@ -7025,7 +7076,7 @@
       <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -7174,7 +7225,7 @@
       <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -7288,10 +7339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E26F68-7B9D-4E97-8A2C-19E37E84CE16}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7302,18 +7353,18 @@
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -7389,11 +7440,11 @@
         <v>6.4699999999999994E-2</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G8" si="0">C4+E4</f>
+        <f t="shared" ref="G4:G10" si="0">C4+E4</f>
         <v>3316</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H8" si="1">G4/B4</f>
+        <f t="shared" ref="H4:H10" si="1">G4/B4</f>
         <v>0.37304533693328834</v>
       </c>
     </row>
@@ -7482,13 +7533,88 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="12"/>
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8175</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1851</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>927</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.1134</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>2778</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.33981651376146788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6930</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1523</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.2198</v>
+      </c>
+      <c r="E9" s="2">
+        <v>811</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>2334</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.33679653679653682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6666</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1166</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.1749</v>
+      </c>
+      <c r="E10" s="2">
+        <v>744</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.1116</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>1910</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.2865286528652865</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -7497,10 +7623,10 @@
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
@@ -7570,6 +7696,48 @@
       </c>
       <c r="D17" s="6">
         <v>0.34665323483322141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.1134</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.33981651376146788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.2198</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.33679653679653682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.1749</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.1116</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.2865286528652865</v>
       </c>
     </row>
   </sheetData>

--- a/niji_holo新人数据统计.xlsx
+++ b/niji_holo新人数据统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\编程练习\vtuber-retention-analysis-by-chatdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD0388-4F88-496F-A5F5-E8775C5BC15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2521D8-B39C-41FE-87D7-BE52782FDF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3345" windowWidth="31395" windowHeight="16740" activeTab="2" xr2:uid="{690CA392-E9E0-447C-9F79-1544890ADEBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{690CA392-E9E0-447C-9F79-1544890ADEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="新人留存比" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="39">
   <si>
     <t>Muyu</t>
   </si>
@@ -197,12 +197,32 @@
     <t>第五场环比留存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="思源黑体 CN Medium"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SC人数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费意愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +258,13 @@
       <name val="思源黑体 CN Medium"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="思源黑体 CN Medium"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -298,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +372,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2825,10 +2855,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salome来源推移!$A$13:$A$20</c:f>
+              <c:f>salome来源推移!$A$13:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2852,16 +2882,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salome来源推移!$B$13:$B$20</c:f>
+              <c:f>salome来源推移!$B$13:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.32350000000000001</c:v>
                 </c:pt>
@@ -2885,6 +2918,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1749</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20050000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2924,10 +2960,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salome来源推移!$A$13:$A$20</c:f>
+              <c:f>salome来源推移!$A$13:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2951,16 +2987,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salome来源推移!$C$13:$C$20</c:f>
+              <c:f>salome来源推移!$C$13:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>3.5200000000000002E-2</c:v>
                 </c:pt>
@@ -2984,6 +3023,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.1116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,10 +3065,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>salome来源推移!$A$13:$A$20</c:f>
+              <c:f>salome来源推移!$A$13:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3050,16 +3092,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>salome来源推移!$D$13:$D$20</c:f>
+              <c:f>salome来源推移!$D$13:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.35864051403449443</c:v>
                 </c:pt>
@@ -3083,6 +3128,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2865286528652865</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29052057285746763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3289,6 +3337,334 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>SC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>占比</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>salome来源推移!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2967</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>salome来源推移!$O$1:$T$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(salome来源推移!$P$1:$P$2,salome来源推移!$R$1:$R$2,salome来源推移!$T$1:$T$2)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>占比</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>占比</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>占比</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>salome来源推移!$O$3:$T$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(salome来源推移!$P$3,salome来源推移!$R$3,salome来源推移!$T$3)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19245028648466464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DD0-4F98-96B4-88ACB3FD8C72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1777193040"/>
+        <c:axId val="1777190128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1777193040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1777190128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1777190128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1777193040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3449,6 +3825,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5147,6 +5563,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5629,9 +6548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>303609</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>232170</xdr:rowOff>
+      <xdr:colOff>656896</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>243052</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5651,6 +6570,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243052</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41385</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4D8C6C-0A98-020E-964B-CE51EDE89AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7339,10 +8294,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E26F68-7B9D-4E97-8A2C-19E37E84CE16}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7350,7 +8305,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="1"/>
       <c r="C1" s="13" t="s">
@@ -7365,8 +8320,21 @@
         <v>28</v>
       </c>
       <c r="H1" s="15"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>26</v>
       </c>
@@ -7391,8 +8359,29 @@
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="N2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -7419,8 +8408,31 @@
         <f>G3/B3</f>
         <v>0.35864051403449443</v>
       </c>
+      <c r="N3" s="9">
+        <v>2967</v>
+      </c>
+      <c r="O3" s="9">
+        <v>395</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.1331</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>176</v>
+      </c>
+      <c r="R3" s="6">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="S3" s="9">
+        <f>O3+Q3</f>
+        <v>571</v>
+      </c>
+      <c r="T3" s="6">
+        <f>S3/N3</f>
+        <v>0.19245028648466464</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7447,8 +8459,30 @@
         <f t="shared" ref="H4:H10" si="1">G4/B4</f>
         <v>0.37304533693328834</v>
       </c>
+      <c r="M4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="6">
+        <f>N3/B11</f>
+        <v>0.33723573539440782</v>
+      </c>
+      <c r="O4" s="16">
+        <f>O3/C11</f>
+        <v>0.22392290249433106</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16">
+        <f>Q3/E11</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16">
+        <f>S3/G11</f>
+        <v>0.22339593114241002</v>
+      </c>
+      <c r="T4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -7476,7 +8510,7 @@
         <v>0.36651643690349944</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -7504,7 +8538,7 @@
         <v>0.34916129032258064</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -7532,7 +8566,7 @@
         <v>0.34665323483322141</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -7560,7 +8594,7 @@
         <v>0.33981651376146788</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -7588,7 +8622,7 @@
         <v>0.33679653679653682</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -7616,7 +8650,35 @@
         <v>0.2865286528652865</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8798</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1764</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>792</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11" si="2">C11+E11</f>
+        <v>2556</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" ref="H11" si="3">G11/B11</f>
+        <v>0.29052057285746763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
@@ -7628,7 +8690,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -7642,7 +8704,7 @@
         <v>0.35864051403449443</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -7656,7 +8718,7 @@
         <v>0.37304533693328834</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -7670,7 +8732,7 @@
         <v>0.36651643690349944</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>4</v>
       </c>
@@ -7740,11 +8802,31 @@
         <v>0.2865286528652865</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.29052057285746763</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
